--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DATA\Mihir\WRO\wro-repo-colab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086E641-C409-4AB8-B13C-CA849FC68316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A521F6-D316-4DDA-93AE-DA0AE9726248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F18D0AA2-AA42-463A-8992-FF188C641083}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>S. No.</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Supreme Bearings</t>
+  </si>
+  <si>
+    <t>Electronics Lot 7</t>
+  </si>
+  <si>
+    <t>Screws</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E259B68-E0EF-41C0-9B8F-EC409D6FAF4F}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,13 +707,44 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45166</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="2">
-        <f>SUM(E2:E13)</f>
-        <v>76096</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="2"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="2">
+        <f>SUM(E2:E15)</f>
+        <v>92027</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
